--- a/excel_data/Win19_wk2_S.xlsx
+++ b/excel_data/Win19_wk2_S.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aguil\Documents\UCSD_old_laptop\Fall_2019\ECE 143\Project\ECE143_FinalProject\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09D18F2A-A19B-4250-A95E-853B77482360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CE1877-C216-4F6F-B680-1C4B2B1B654E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{BAF383BB-BE73-4443-B68F-8DEAE0AF96B1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <r>
       <rPr>
@@ -189,16 +189,6 @@
     <r>
       <rPr>
         <sz val="7"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -256,64 +246,64 @@
     </r>
   </si>
   <si>
-    <t>Mon-8</t>
-  </si>
-  <si>
-    <t>Mon-10</t>
-  </si>
-  <si>
-    <t>Mon-12</t>
-  </si>
-  <si>
-    <t>Mon-2</t>
-  </si>
-  <si>
-    <t>Tue-8</t>
-  </si>
-  <si>
-    <t>Tue-10</t>
-  </si>
-  <si>
-    <t>Tue-12</t>
-  </si>
-  <si>
-    <t>Tue-2</t>
-  </si>
-  <si>
-    <t>Wed-8</t>
-  </si>
-  <si>
-    <t>Wed-10</t>
-  </si>
-  <si>
-    <t>Wed-12</t>
-  </si>
-  <si>
-    <t>Wed-2</t>
-  </si>
-  <si>
-    <t>Thu-8</t>
-  </si>
-  <si>
-    <t>Thu-10</t>
-  </si>
-  <si>
-    <t>Thu-12</t>
-  </si>
-  <si>
-    <t>Thu-2</t>
-  </si>
-  <si>
-    <t>Fri-8</t>
-  </si>
-  <si>
-    <t>Fri-10</t>
-  </si>
-  <si>
-    <t>Fri-12</t>
-  </si>
-  <si>
-    <t>Fri-2</t>
+    <t>Mon08</t>
+  </si>
+  <si>
+    <t>Mon010</t>
+  </si>
+  <si>
+    <t>Mon012</t>
+  </si>
+  <si>
+    <t>Mon02</t>
+  </si>
+  <si>
+    <t>Tue08</t>
+  </si>
+  <si>
+    <t>Tue010</t>
+  </si>
+  <si>
+    <t>Tue012</t>
+  </si>
+  <si>
+    <t>Tue02</t>
+  </si>
+  <si>
+    <t>Wed08</t>
+  </si>
+  <si>
+    <t>Wed010</t>
+  </si>
+  <si>
+    <t>Wed012</t>
+  </si>
+  <si>
+    <t>Wed02</t>
+  </si>
+  <si>
+    <t>Thu08</t>
+  </si>
+  <si>
+    <t>Thu010</t>
+  </si>
+  <si>
+    <t>Thu012</t>
+  </si>
+  <si>
+    <t>Thu02</t>
+  </si>
+  <si>
+    <t>Fri08</t>
+  </si>
+  <si>
+    <t>Fri010</t>
+  </si>
+  <si>
+    <t>Fri012</t>
+  </si>
+  <si>
+    <t>Fri02</t>
   </si>
 </sst>
 </file>
@@ -955,7 +945,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -971,64 +961,64 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="F1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="G1" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="H1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="M1" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="N1" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="O1" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="P1" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="Q1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="41" t="s">
+      <c r="R1" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="S1" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="T1" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="U1" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="41" t="s">
+      <c r="V1" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="W1" s="41" t="s">
         <v>40</v>
-      </c>
-      <c r="W1" s="41" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -1664,8 +1654,8 @@
       <c r="C11" s="11">
         <v>83</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>15</v>
+      <c r="D11" s="14">
+        <v>0</v>
       </c>
       <c r="E11" s="15">
         <v>0</v>
@@ -1728,7 +1718,7 @@
     <row r="12" spans="1:23">
       <c r="A12" s="28"/>
       <c r="B12" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="23">
         <v>29</v>
@@ -1797,7 +1787,7 @@
     <row r="13" spans="1:23">
       <c r="A13" s="10"/>
       <c r="B13" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="11">
         <v>257</v>
@@ -1865,10 +1855,10 @@
     </row>
     <row r="14" spans="1:23" ht="17.399999999999999">
       <c r="A14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>19</v>
       </c>
       <c r="C14" s="23">
         <v>578</v>
@@ -1936,10 +1926,10 @@
     </row>
     <row r="15" spans="1:23" ht="17.399999999999999">
       <c r="A15" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="11">
         <v>184</v>
@@ -2008,7 +1998,7 @@
     <row r="16" spans="1:23">
       <c r="A16" s="31"/>
       <c r="B16" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="33">
         <v>241</v>
